--- a/resources/generated_datasets/workflow_dataset/resources.xlsx
+++ b/resources/generated_datasets/workflow_dataset/resources.xlsx
@@ -113,9 +113,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-173673034622279666" xfId="1" hidden="0"/>
-    <cellStyle name="-2080003078183140393" xfId="2" hidden="0"/>
-    <cellStyle name="3166501419368920112" xfId="3" hidden="0"/>
+    <cellStyle name="3003334548118377927" xfId="1" hidden="0"/>
+    <cellStyle name="5730267006370813657" xfId="2" hidden="0"/>
+    <cellStyle name="-6079889542012965321" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
